--- a/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_A_FGI_glucose.xlsx
+++ b/biorefineries/TAL/analyses/full/parameter_distributions/parameter-distributions_Sorbate_A_FGI_glucose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5760072-4B19-42EE-8D92-240EB4E14ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC1046-F671-4F1E-A103-0E908E1E902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="140">
   <si>
     <t>Parameter name</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>g/L/h</t>
-  </si>
-  <si>
     <t>feedstock.T = feedstock.T</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>R303.ferm_ratio = x</t>
   </si>
   <si>
-    <t>spec.spec_2 = x</t>
-  </si>
-  <si>
-    <t>spec.spec_3 = x</t>
-  </si>
-  <si>
     <t>PowerUtility.price = x</t>
   </si>
   <si>
@@ -176,15 +167,6 @@
     <t>R302.acetate_loading = x</t>
   </si>
   <si>
-    <t>Fermentation TAL yield</t>
-  </si>
-  <si>
-    <t>Fermentation TAL titer</t>
-  </si>
-  <si>
-    <t>Fermentation TAL productivity</t>
-  </si>
-  <si>
     <t>Acetate unit price</t>
   </si>
   <si>
@@ -215,21 +197,9 @@
     <t>BT701.turbogenerator_efficiency = x</t>
   </si>
   <si>
-    <t>spec.desired_annual_production = x</t>
-  </si>
-  <si>
-    <t>Desired annual production</t>
-  </si>
-  <si>
-    <t>pure metric ton/y</t>
-  </si>
-  <si>
     <t>T620.tau = x</t>
   </si>
   <si>
-    <t xml:space="preserve">spec.spec_1 = x </t>
-  </si>
-  <si>
     <t>Centrifuge solids recovery</t>
   </si>
   <si>
@@ -474,6 +444,18 @@
   </si>
   <si>
     <t>Load statement</t>
+  </si>
+  <si>
+    <t>Feedstock capacity</t>
+  </si>
+  <si>
+    <t>Feedstock</t>
+  </si>
+  <si>
+    <t>kg/h</t>
+  </si>
+  <si>
+    <t>feedstock.F_mass = x</t>
   </si>
 </sst>
 </file>
@@ -842,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -921,7 +903,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <f>IF(E2=H2, 1, IF(F2=$F$2, 1, 0))</f>
@@ -930,7 +912,7 @@
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -939,13 +921,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E3" s="6">
         <v>330</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="6">
         <f>0.9*E3</f>
@@ -961,7 +943,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="7">
         <f>IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
@@ -985,7 +967,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6">
         <v>0.23</v>
@@ -998,7 +980,7 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="7">
         <f t="shared" ref="Q4" si="0">IF(E4=H4, 1, IF(F4=$F$2, 1, 0))</f>
@@ -1022,7 +1004,7 @@
         <v>0.27650000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>0.21629999999999999</v>
@@ -1035,10 +1017,10 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q33" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q5:Q30" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1059,7 +1041,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3">
         <v>6.7000000000000004E-2</v>
@@ -1072,7 +1054,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -1081,7 +1063,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1096,7 +1078,7 @@
         <v>1.0105599999999999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <f>(0.35/0.38)*E7</f>
@@ -1112,7 +1094,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -1121,7 +1103,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1149,7 +1131,7 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -1158,7 +1140,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1184,7 +1166,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -1193,7 +1175,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1219,7 +1201,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -1228,7 +1210,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1255,7 +1237,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -1264,7 +1246,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1279,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
@@ -1293,7 +1275,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
@@ -1302,7 +1284,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1317,7 +1299,7 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1330,7 +1312,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -1339,48 +1321,42 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="E14" s="3">
-        <f>3.908*15944</f>
-        <v>62309.152000000002</v>
+        <v>50997</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3">
-        <f>0.8*E14</f>
-        <v>49847.321600000003</v>
+        <f>0.8*H14</f>
+        <v>40797.600000000006</v>
       </c>
       <c r="H14" s="3">
-        <f>E14</f>
-        <v>62309.152000000002</v>
+        <v>50997</v>
       </c>
       <c r="I14" s="3">
-        <f>1.2*E14</f>
-        <v>74770.982399999994</v>
+        <f>1.2*H14</f>
+        <v>61196.399999999994</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1406,7 +1382,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
@@ -1415,7 +1391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1441,7 +1417,7 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
@@ -1450,10 +1426,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1475,10 +1451,10 @@
         <v>101.9</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
@@ -1487,10 +1463,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -1512,10 +1488,10 @@
         <v>14.909000000000001</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
@@ -1524,16 +1500,16 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3">
         <v>10</v>
@@ -1552,7 +1528,7 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
@@ -1561,10 +1537,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
@@ -1587,7 +1563,7 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
@@ -1599,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -1623,7 +1599,7 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
@@ -1632,10 +1608,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1660,7 +1636,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
@@ -1669,10 +1645,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1681,23 +1657,23 @@
         <v>20</v>
       </c>
       <c r="E23" s="3">
-        <v>0.40479999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="3">
-        <f>0.8*E23</f>
-        <v>0.32384000000000002</v>
+        <f>E23*0.8</f>
+        <v>0.27120000000000005</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <f>1.2*E23</f>
-        <v>0.48575999999999997</v>
+        <f>E23*1.2</f>
+        <v>0.40679999999999999</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
@@ -1706,35 +1682,35 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3">
-        <v>35.9</v>
+        <v>8.856E-2</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="3">
         <f>E24*0.8</f>
-        <v>28.72</v>
+        <v>7.0848000000000008E-2</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
         <f>E24*1.2</f>
-        <v>43.08</v>
+        <v>0.10627199999999999</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="Q24">
         <f t="shared" si="1"/>
@@ -1743,35 +1719,33 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.12</v>
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.2087</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="3">
-        <f>E25*0.8</f>
-        <v>9.6000000000000002E-2</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <f>E25*1.2</f>
-        <v>0.14399999999999999</v>
+      <c r="I25" s="4">
+        <v>0.34</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
@@ -1780,35 +1754,33 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>0.33900000000000002</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="3">
-        <f>E26*0.8</f>
-        <v>0.27120000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <f>E26*1.2</f>
-        <v>0.40679999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
@@ -1817,35 +1789,33 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3">
-        <v>8.856E-2</v>
+        <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="3">
-        <f>E27*0.8</f>
-        <v>7.0848000000000008E-2</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <f>E27*1.2</f>
-        <v>0.10627199999999999</v>
+        <v>14</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
@@ -1854,33 +1824,34 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E28" s="3">
-        <v>0.2087</v>
+        <v>0.95</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3">
-        <v>4.6300000000000001E-2</v>
+        <f>1-2*(1-E28)</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="4">
-        <v>0.34</v>
+      <c r="I28" s="3">
+        <v>1</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
@@ -1889,10 +1860,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1901,21 +1872,23 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="3">
-        <v>0.8</v>
+        <f>E29*0.8</f>
+        <v>0.4</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3">
-        <v>1.2</v>
+        <f>E29*1.2</f>
+        <v>0.6</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
@@ -1924,33 +1897,35 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3">
-        <v>8</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <f>E30*0.8</f>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3">
-        <v>14</v>
+        <f>E30*1.2</f>
+        <v>0.06</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
@@ -1959,256 +1934,254 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E31" s="3">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="3">
-        <f>1-2*(1-E31)</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="G31:G34" si="3">0.9*E31</f>
+        <v>0.18000000000000002</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3">
-        <v>1</v>
+        <f>1.1*E31</f>
+        <v>0.22000000000000003</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="1"/>
+        <f>IF(E31=H31, 1, IF(F31=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E32" s="3">
-        <v>0.5</v>
+        <v>9.4</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="3">
-        <f>E32*0.8</f>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>8.4600000000000009</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3">
-        <f>E32*1.2</f>
-        <v>0.6</v>
+        <f>1.1*E32</f>
+        <v>10.340000000000002</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
+        <f>IF(E32=H32, 1, IF(F32=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E33" s="3">
-        <v>0.05</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="3">
-        <f>E33*0.8</f>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3">
-        <f>E33*1.2</f>
-        <v>0.06</v>
+        <f>1.1*E33</f>
+        <v>110.00000000000001</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q33:Q51" si="4">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E34" s="3">
-        <v>0.2</v>
+        <v>3500000</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G37" si="3">0.9*E34</f>
-        <v>0.18000000000000002</v>
+        <f t="shared" si="3"/>
+        <v>3150000</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3">
         <f>1.1*E34</f>
-        <v>0.22000000000000003</v>
+        <v>3850000.0000000005</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q34">
-        <f>IF(E34=H34, 1, IF(F34=$F$2, 1, 0))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>9.4</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
-        <v>8.4600000000000009</v>
+        <f>1-2*(1-E35)</f>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3">
-        <f>1.1*E35</f>
-        <v>10.340000000000002</v>
+        <v>1</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="Q35">
-        <f>IF(E35=H35, 1, IF(F35=$F$2, 1, 0))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E36" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3">
-        <f>1.1*E36</f>
-        <v>110.00000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q36">
-        <f t="shared" ref="Q36:Q54" si="4">IF(E36=H36, 1, IF(F36=$F$2, 1, 0))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E37" s="3">
-        <v>3500000</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="3"/>
-        <v>3150000</v>
+        <f>0.9*E37</f>
+        <v>0.45</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3">
         <f>1.1*E37</f>
-        <v>3850000.0000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Q37">
         <f t="shared" si="4"/>
@@ -2217,34 +2190,35 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E38" s="3">
-        <v>0.96899999999999997</v>
+        <v>6.1</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="3">
-        <f>1-2*(1-E38)</f>
-        <v>0.93799999999999994</v>
+        <f>0.9*E38</f>
+        <v>5.49</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3">
-        <v>1</v>
+        <f>1.1*E38</f>
+        <v>6.71</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="Q38">
         <f t="shared" si="4"/>
@@ -2253,33 +2227,35 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="3">
-        <v>0.1</v>
+        <f>0.9*E39</f>
+        <v>144</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3">
-        <v>1.9</v>
+        <f>1.1*E39</f>
+        <v>176</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Q39">
         <f t="shared" si="4"/>
@@ -2288,35 +2264,35 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3">
-        <v>0.5</v>
+        <v>0.871</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="3">
         <f>0.9*E40</f>
-        <v>0.45</v>
+        <v>0.78390000000000004</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3">
         <f>1.1*E40</f>
-        <v>0.55000000000000004</v>
+        <v>0.95810000000000006</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="Q40">
         <f t="shared" si="4"/>
@@ -2325,35 +2301,35 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E41" s="3">
-        <v>6.1</v>
+        <v>2000000</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="3">
         <f>0.9*E41</f>
-        <v>5.49</v>
+        <v>1800000</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3">
         <f>1.1*E41</f>
-        <v>6.71</v>
+        <v>2200000</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Q41">
         <f t="shared" si="4"/>
@@ -2362,35 +2338,33 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E42" s="3">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="3">
-        <f>0.9*E42</f>
-        <v>144</v>
+        <v>0.1</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
-        <f>1.1*E42</f>
-        <v>176</v>
+        <v>1.9</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q42">
         <f t="shared" si="4"/>
@@ -2399,35 +2373,35 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E43" s="3">
-        <v>0.871</v>
+        <v>19</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="3">
         <f>0.9*E43</f>
-        <v>0.78390000000000004</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
         <f>1.1*E43</f>
-        <v>0.95810000000000006</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="Q43">
         <f t="shared" si="4"/>
@@ -2436,35 +2410,33 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>2000000</v>
+        <v>0.999</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="3">
-        <f>0.9*E44</f>
-        <v>1800000</v>
+        <v>0.998</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
-        <f>1.1*E44</f>
-        <v>2200000</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q44">
         <f t="shared" si="4"/>
@@ -2473,33 +2445,36 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E45" s="3">
-        <v>1</v>
+        <f>130</f>
+        <v>130</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="3">
-        <v>0.1</v>
+        <f>0.9*E45</f>
+        <v>117</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
-        <v>1.9</v>
+        <f>1.1*E45</f>
+        <v>143</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q45">
         <f t="shared" si="4"/>
@@ -2508,35 +2483,35 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E46" s="3">
-        <v>19</v>
+        <v>2000000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="3">
         <f>0.9*E46</f>
-        <v>17.100000000000001</v>
+        <v>1800000</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
         <f>1.1*E46</f>
-        <v>20.900000000000002</v>
+        <v>2200000</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q46">
         <f t="shared" si="4"/>
@@ -2545,33 +2520,33 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="E47" s="3">
-        <v>0.999</v>
+        <v>31.391999999999999</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="3">
-        <v>0.998</v>
+        <f t="shared" ref="G47:G48" si="5">0.9*E47</f>
+        <v>28.252800000000001</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>1</v>
+        <f t="shared" ref="I47:I48" si="6">1.1*E47</f>
+        <v>34.531200000000005</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q47">
         <f t="shared" si="4"/>
@@ -2580,32 +2555,29 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E48" s="3">
-        <f>130</f>
-        <v>130</v>
+        <v>31.545000000000002</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="3">
-        <f>0.9*E48</f>
-        <v>117</v>
+        <f t="shared" si="5"/>
+        <v>28.390500000000003</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3">
-        <f>1.1*E48</f>
-        <v>143</v>
+        <f t="shared" si="6"/>
+        <v>34.699500000000008</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
@@ -2618,35 +2590,35 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E49" s="3">
-        <v>2000000</v>
+        <v>168</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G49" s="3">
-        <f>0.9*E49</f>
-        <v>1800000</v>
-      </c>
-      <c r="H49" s="3"/>
+        <v>134.4</v>
+      </c>
+      <c r="H49" s="3">
+        <v>168</v>
+      </c>
       <c r="I49" s="3">
-        <f>1.1*E49</f>
-        <v>2200000</v>
+        <v>201.6</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="Q49">
         <f t="shared" si="4"/>
@@ -2655,33 +2627,35 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D50" s="3" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="E50" s="3">
-        <v>31.391999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" ref="G50:G51" si="5">0.9*E50</f>
-        <v>28.252800000000001</v>
+        <f>E50*0.9</f>
+        <v>0.72000000000000008</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3">
-        <f t="shared" ref="I50:I51" si="6">1.1*E50</f>
-        <v>34.531200000000005</v>
+        <f>E50*1.1</f>
+        <v>0.88000000000000012</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="Q50">
         <f t="shared" si="4"/>
@@ -2690,146 +2664,37 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D51" s="3" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="E51" s="3">
-        <v>31.545000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="5"/>
-        <v>28.390500000000003</v>
+        <f>E51*0.9</f>
+        <v>0.76500000000000001</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3">
-        <f t="shared" si="6"/>
-        <v>34.699500000000008</v>
+        <f>E51*1.1</f>
+        <v>0.93500000000000005</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="3">
-        <v>168</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="3">
-        <v>134.4</v>
-      </c>
-      <c r="H52" s="3">
-        <v>168</v>
-      </c>
-      <c r="I52" s="3">
-        <v>201.6</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="3">
-        <f>E53*0.9</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3">
-        <f>E53*1.1</f>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="3">
-        <f>E54*0.9</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3">
-        <f>E54*1.1</f>
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q54">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
